--- a/WWT/Test.xlsx
+++ b/WWT/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\WWT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\WWT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -39,34 +39,115 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCLU8287214</t>
-  </si>
-  <si>
-    <t>MOL MODERN</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>CHI1150572-CHI7813102</t>
-  </si>
-  <si>
-    <t>PUSV00972307</t>
-  </si>
-  <si>
-    <t>TCLU6860311</t>
-  </si>
-  <si>
-    <t>CHI1150574-CHI7813107</t>
-  </si>
-  <si>
-    <t>TY8NG4054500</t>
-  </si>
-  <si>
-    <t>DFSU1262565</t>
-  </si>
-  <si>
-    <t>CHI1150574-CHI7813105</t>
+    <t>YMMU4115094</t>
+  </si>
+  <si>
+    <t>MEISHAN BRIDGE</t>
+  </si>
+  <si>
+    <t>004E</t>
+  </si>
+  <si>
+    <t>9076904096-01</t>
+  </si>
+  <si>
+    <t>YMLUE216029602</t>
+  </si>
+  <si>
+    <t>MOAU5828130</t>
+  </si>
+  <si>
+    <t>9076904359-01</t>
+  </si>
+  <si>
+    <t>ONEYKHHV01627800</t>
+  </si>
+  <si>
+    <t>MOAU1439510</t>
+  </si>
+  <si>
+    <t>9076904168-01</t>
+  </si>
+  <si>
+    <t>ONEYTPEV11055700</t>
+  </si>
+  <si>
+    <t>WANDO WELCH TERMINAL (WWT)</t>
+  </si>
+  <si>
+    <t>HLXU8446496</t>
+  </si>
+  <si>
+    <t>CAP ANDREAS</t>
+  </si>
+  <si>
+    <t>911N</t>
+  </si>
+  <si>
+    <t>9075904430-01</t>
+  </si>
+  <si>
+    <t>HLCUSS5190329077</t>
+  </si>
+  <si>
+    <t>NYKU3918581</t>
+  </si>
+  <si>
+    <t>9074904490-01</t>
+  </si>
+  <si>
+    <t>ONEYDACV03534600</t>
+  </si>
+  <si>
+    <t>TCLU2595420</t>
+  </si>
+  <si>
+    <t>SEAMAX GREENWICH</t>
+  </si>
+  <si>
+    <t>IU911A</t>
+  </si>
+  <si>
+    <t>9076904156-01</t>
+  </si>
+  <si>
+    <t>MEDUIS693931</t>
+  </si>
+  <si>
+    <t>NYKU9729420</t>
+  </si>
+  <si>
+    <t>9074904925-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV26586600</t>
+  </si>
+  <si>
+    <t>TCLU3157368</t>
+  </si>
+  <si>
+    <t>9075904717-01</t>
+  </si>
+  <si>
+    <t>MEDUMI227023</t>
+  </si>
+  <si>
+    <t>GLDU7024880</t>
+  </si>
+  <si>
+    <t>9075904714-01</t>
+  </si>
+  <si>
+    <t>MEDUMI240638</t>
+  </si>
+  <si>
+    <t>MEDU6676607</t>
+  </si>
+  <si>
+    <t>9075904719-01</t>
+  </si>
+  <si>
+    <t>MEDUMI227148</t>
   </si>
 </sst>
 </file>
@@ -384,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G317"/>
+      <selection activeCell="A12" sqref="A12:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -428,8 +509,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -445,8 +529,11 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -460,7 +547,150 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/WWT/Test.xlsx
+++ b/WWT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="295">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,66 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCNU1596306</t>
-  </si>
-  <si>
-    <t>NYK BLUE JAY</t>
-  </si>
-  <si>
-    <t>015E</t>
-  </si>
-  <si>
-    <t>9077903357-01</t>
-  </si>
-  <si>
-    <t>HLCUSGN190125481</t>
-  </si>
-  <si>
-    <t>TCNU8031723</t>
-  </si>
-  <si>
-    <t>YORK</t>
-  </si>
-  <si>
-    <t>913W</t>
-  </si>
-  <si>
-    <t>9076904127-01</t>
-  </si>
-  <si>
-    <t>SUDU9BRE006123</t>
-  </si>
-  <si>
-    <t>GLDU9356267</t>
-  </si>
-  <si>
-    <t>NG913W</t>
-  </si>
-  <si>
-    <t>9076904145-01</t>
-  </si>
-  <si>
-    <t>MEDUBN265658</t>
-  </si>
-  <si>
-    <t>TCLU5848055</t>
-  </si>
-  <si>
-    <t>9076904143-01</t>
-  </si>
-  <si>
-    <t>MEDUBN266466</t>
-  </si>
-  <si>
-    <t>GLDU7391931</t>
-  </si>
-  <si>
-    <t>9076904147-01</t>
-  </si>
-  <si>
-    <t>MEDUBN265617</t>
-  </si>
-  <si>
     <t>TCNU8203041</t>
   </si>
   <si>
@@ -122,19 +62,19 @@
     <t>MEDUMI250694</t>
   </si>
   <si>
-    <t>BMOU6014317</t>
-  </si>
-  <si>
-    <t>9076904130-01</t>
-  </si>
-  <si>
-    <t>MEDUBN266003</t>
-  </si>
-  <si>
-    <t>MSKU1988164</t>
-  </si>
-  <si>
-    <t>9076904128-01</t>
+    <t>CAIU9378797</t>
+  </si>
+  <si>
+    <t>MSC MARGARITA</t>
+  </si>
+  <si>
+    <t>NG914W</t>
+  </si>
+  <si>
+    <t>9076904423-01</t>
+  </si>
+  <si>
+    <t>MEDUBN531463</t>
   </si>
   <si>
     <t>TCLU2595420</t>
@@ -146,6 +86,24 @@
     <t>MEDUIS693931</t>
   </si>
   <si>
+    <t>TCLU7764040</t>
+  </si>
+  <si>
+    <t>9076904274-01</t>
+  </si>
+  <si>
+    <t>MEDUBL013365</t>
+  </si>
+  <si>
+    <t>MSCU7669381</t>
+  </si>
+  <si>
+    <t>9076904268-01</t>
+  </si>
+  <si>
+    <t>MEDUBN623674</t>
+  </si>
+  <si>
     <t>YMMU4115094</t>
   </si>
   <si>
@@ -161,24 +119,6 @@
     <t>YMLUE216029602</t>
   </si>
   <si>
-    <t>BMOU6554830</t>
-  </si>
-  <si>
-    <t>9074904974-01</t>
-  </si>
-  <si>
-    <t>MEDUBN266383</t>
-  </si>
-  <si>
-    <t>TRHU2415290</t>
-  </si>
-  <si>
-    <t>9074904986-01</t>
-  </si>
-  <si>
-    <t>MEDUBN385639</t>
-  </si>
-  <si>
     <t>NYKU9729420</t>
   </si>
   <si>
@@ -188,37 +128,67 @@
     <t>ONEYSZPV26586600</t>
   </si>
   <si>
-    <t>CAIU4646536</t>
-  </si>
-  <si>
-    <t>9076904126-01</t>
-  </si>
-  <si>
-    <t>TCLU3157368</t>
-  </si>
-  <si>
-    <t>9075904717-01</t>
-  </si>
-  <si>
-    <t>MEDUMI227023</t>
-  </si>
-  <si>
-    <t>FSCU9109861</t>
-  </si>
-  <si>
-    <t>9076904131-01</t>
-  </si>
-  <si>
-    <t>MEDUBN420659</t>
-  </si>
-  <si>
-    <t>MEDU8905240</t>
-  </si>
-  <si>
-    <t>9076904141-01</t>
-  </si>
-  <si>
-    <t>MEDUBN265518</t>
+    <t>MSCU5527182</t>
+  </si>
+  <si>
+    <t>9076904351-01</t>
+  </si>
+  <si>
+    <t>MEDUBN461919</t>
+  </si>
+  <si>
+    <t>MEDU9483469</t>
+  </si>
+  <si>
+    <t>9075904992-01</t>
+  </si>
+  <si>
+    <t>MSCUUW128658</t>
+  </si>
+  <si>
+    <t>EITU0274094</t>
+  </si>
+  <si>
+    <t>COSCO VIETNAM</t>
+  </si>
+  <si>
+    <t>049W</t>
+  </si>
+  <si>
+    <t>9077904066-01</t>
+  </si>
+  <si>
+    <t>EGLV560900121837</t>
+  </si>
+  <si>
+    <t>FCIU7375349</t>
+  </si>
+  <si>
+    <t>9076904273-01</t>
+  </si>
+  <si>
+    <t>EISU1820977</t>
+  </si>
+  <si>
+    <t>9076904242-01</t>
+  </si>
+  <si>
+    <t>EGLV560900109489</t>
+  </si>
+  <si>
+    <t>TEMU7042636</t>
+  </si>
+  <si>
+    <t>MILANO BRIDGE</t>
+  </si>
+  <si>
+    <t>006E</t>
+  </si>
+  <si>
+    <t>9077904052-01</t>
+  </si>
+  <si>
+    <t>YMLUE425902782</t>
   </si>
   <si>
     <t>GLDU7024880</t>
@@ -230,6 +200,15 @@
     <t>MEDUMI240638</t>
   </si>
   <si>
+    <t>KKFU1708651</t>
+  </si>
+  <si>
+    <t>9076904923-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV27307500</t>
+  </si>
+  <si>
     <t>YMLU8620064</t>
   </si>
   <si>
@@ -245,31 +224,148 @@
     <t>YMLUE360769221</t>
   </si>
   <si>
-    <t>MEDU6676607</t>
-  </si>
-  <si>
-    <t>9075904719-01</t>
-  </si>
-  <si>
-    <t>MEDUMI227148</t>
-  </si>
-  <si>
-    <t>BMOU6787277</t>
-  </si>
-  <si>
-    <t>9076904138-01</t>
-  </si>
-  <si>
-    <t>MEDUBN265815</t>
-  </si>
-  <si>
-    <t>MOAU1439510</t>
-  </si>
-  <si>
-    <t>9076904168-01</t>
-  </si>
-  <si>
-    <t>ONEYTPEV11055700</t>
+    <t>TCNU3120577</t>
+  </si>
+  <si>
+    <t>9076904664-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526158</t>
+  </si>
+  <si>
+    <t>BMOU6655100</t>
+  </si>
+  <si>
+    <t>MSC ARUSHI R.</t>
+  </si>
+  <si>
+    <t>NQ914A</t>
+  </si>
+  <si>
+    <t>9076904746-01</t>
+  </si>
+  <si>
+    <t>MEDUBL013258</t>
+  </si>
+  <si>
+    <t>FCIU8557461</t>
+  </si>
+  <si>
+    <t>9076904658-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526125</t>
+  </si>
+  <si>
+    <t>TCNU1422367</t>
+  </si>
+  <si>
+    <t>9076904662-01</t>
+  </si>
+  <si>
+    <t>MEDUBN506739</t>
+  </si>
+  <si>
+    <t>TGCU5012343</t>
+  </si>
+  <si>
+    <t>9076904666-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526190</t>
+  </si>
+  <si>
+    <t>FBLU0063188</t>
+  </si>
+  <si>
+    <t>9076904668-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526075</t>
+  </si>
+  <si>
+    <t>CAIU4798694</t>
+  </si>
+  <si>
+    <t>9076904326-01</t>
+  </si>
+  <si>
+    <t>MEDUBN506002</t>
+  </si>
+  <si>
+    <t>BSIU2847286</t>
+  </si>
+  <si>
+    <t>9076904090-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV29895500</t>
+  </si>
+  <si>
+    <t>TCLU9089996</t>
+  </si>
+  <si>
+    <t>9076904415-01</t>
+  </si>
+  <si>
+    <t>ONEYBKKV21981800</t>
+  </si>
+  <si>
+    <t>TTNU5551642</t>
+  </si>
+  <si>
+    <t>MOL MODERN</t>
+  </si>
+  <si>
+    <t>045E</t>
+  </si>
+  <si>
+    <t>9076904419-01</t>
+  </si>
+  <si>
+    <t>ONEYNB9BS0929700</t>
+  </si>
+  <si>
+    <t>HLBU1129785</t>
+  </si>
+  <si>
+    <t>9076904884-01</t>
+  </si>
+  <si>
+    <t>HLCUSZX1902BARI1</t>
+  </si>
+  <si>
+    <t>CMAU8169080</t>
+  </si>
+  <si>
+    <t>EVER LEADING</t>
+  </si>
+  <si>
+    <t>0VC2XE1MA</t>
+  </si>
+  <si>
+    <t>9075904592-01</t>
+  </si>
+  <si>
+    <t>CMDUSEL0848156</t>
+  </si>
+  <si>
+    <t>CAIU4910823</t>
+  </si>
+  <si>
+    <t>9076904656-01</t>
+  </si>
+  <si>
+    <t>MEDUBN531430</t>
+  </si>
+  <si>
+    <t>CXDU1683113</t>
+  </si>
+  <si>
+    <t>9076904667-01</t>
+  </si>
+  <si>
+    <t>MEDUBN525473</t>
   </si>
   <si>
     <t>CAAU5008744</t>
@@ -281,31 +377,70 @@
     <t>MEDUBL011054</t>
   </si>
   <si>
-    <t>TEMU2232968</t>
-  </si>
-  <si>
-    <t>9076904727-01</t>
-  </si>
-  <si>
-    <t>ONEYSELV14738900</t>
-  </si>
-  <si>
-    <t>MSDU7436526</t>
-  </si>
-  <si>
-    <t>9075904629-01</t>
-  </si>
-  <si>
-    <t>MEDUBN335410</t>
-  </si>
-  <si>
-    <t>MOAU5828130</t>
-  </si>
-  <si>
-    <t>9076904359-01</t>
-  </si>
-  <si>
-    <t>ONEYKHHV01627800</t>
+    <t>TCLU9889601</t>
+  </si>
+  <si>
+    <t>9076904660-01</t>
+  </si>
+  <si>
+    <t>MEDUBN506911</t>
+  </si>
+  <si>
+    <t>MSCU4703081</t>
+  </si>
+  <si>
+    <t>9076904352-01</t>
+  </si>
+  <si>
+    <t>MEDUBN461968</t>
+  </si>
+  <si>
+    <t>UACU8468248</t>
+  </si>
+  <si>
+    <t>9076904885-01</t>
+  </si>
+  <si>
+    <t>TLLU4678590</t>
+  </si>
+  <si>
+    <t>9076904321-01</t>
+  </si>
+  <si>
+    <t>MEDUBN505855</t>
+  </si>
+  <si>
+    <t>TLLU5162485</t>
+  </si>
+  <si>
+    <t>9076904343-01</t>
+  </si>
+  <si>
+    <t>MEDUBN506713</t>
+  </si>
+  <si>
+    <t>MEDU1204742</t>
+  </si>
+  <si>
+    <t>9076904347-01</t>
+  </si>
+  <si>
+    <t>MEDUBN531521</t>
+  </si>
+  <si>
+    <t>MSCU3904097</t>
+  </si>
+  <si>
+    <t>9076904350-01</t>
+  </si>
+  <si>
+    <t>CXDU1160350</t>
+  </si>
+  <si>
+    <t>9076904530-01</t>
+  </si>
+  <si>
+    <t>MEDUBN608642</t>
   </si>
   <si>
     <t>BMOU5637694</t>
@@ -323,40 +458,64 @@
     <t>MEDUBN322079</t>
   </si>
   <si>
-    <t>MEDU2023137</t>
-  </si>
-  <si>
-    <t>9075904718-01</t>
-  </si>
-  <si>
-    <t>MEDUMI250215</t>
-  </si>
-  <si>
-    <t>TCLU7799520</t>
-  </si>
-  <si>
-    <t>9076904386-01</t>
-  </si>
-  <si>
-    <t>MEDUBN341558</t>
-  </si>
-  <si>
-    <t>TLLU5048554</t>
-  </si>
-  <si>
-    <t>9076904139-01</t>
-  </si>
-  <si>
-    <t>MEDUBN265906</t>
-  </si>
-  <si>
-    <t>TTNU1098965</t>
-  </si>
-  <si>
-    <t>9075904716-01</t>
-  </si>
-  <si>
-    <t>MEDUMI226769</t>
+    <t>YMLU3279802</t>
+  </si>
+  <si>
+    <t>9076904928-01</t>
+  </si>
+  <si>
+    <t>YMLUE470011808</t>
+  </si>
+  <si>
+    <t>MOAU5834200</t>
+  </si>
+  <si>
+    <t>9076904372-01</t>
+  </si>
+  <si>
+    <t>ONEYSH9FC0109300</t>
+  </si>
+  <si>
+    <t>FSCU8112747</t>
+  </si>
+  <si>
+    <t>9076904425-01</t>
+  </si>
+  <si>
+    <t>MEDUBN531471</t>
+  </si>
+  <si>
+    <t>TEMU8709240</t>
+  </si>
+  <si>
+    <t>9076904534-01</t>
+  </si>
+  <si>
+    <t>APZU4492905</t>
+  </si>
+  <si>
+    <t>9075904589-01</t>
+  </si>
+  <si>
+    <t>CMDUSEL0852731</t>
+  </si>
+  <si>
+    <t>BMOU6901820</t>
+  </si>
+  <si>
+    <t>9076904335-01</t>
+  </si>
+  <si>
+    <t>MEDUBN418554</t>
+  </si>
+  <si>
+    <t>TLLU6105242</t>
+  </si>
+  <si>
+    <t>9076904348-01</t>
+  </si>
+  <si>
+    <t>ONEYSH9FC0108900</t>
   </si>
   <si>
     <t>CNCU1511070</t>
@@ -374,49 +533,22 @@
     <t>CMDUFOC0150284</t>
   </si>
   <si>
-    <t>NYKU3599524</t>
-  </si>
-  <si>
-    <t>ONE STORK</t>
-  </si>
-  <si>
-    <t>9075904147-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV20302700</t>
-  </si>
-  <si>
-    <t>DFSU6453116</t>
-  </si>
-  <si>
-    <t>9074904983-01</t>
-  </si>
-  <si>
-    <t>MEDUBN418612</t>
-  </si>
-  <si>
-    <t>MEDU6468060</t>
-  </si>
-  <si>
-    <t>9073904650-01</t>
-  </si>
-  <si>
-    <t>MEDUBN427894</t>
-  </si>
-  <si>
-    <t>MOFU6722818</t>
-  </si>
-  <si>
-    <t>9073904206-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV21308700</t>
-  </si>
-  <si>
-    <t>MSCU5069963</t>
-  </si>
-  <si>
-    <t>9073904649-01</t>
+    <t>MSCU5203769</t>
+  </si>
+  <si>
+    <t>9076904747-01</t>
+  </si>
+  <si>
+    <t>MEDU7436534</t>
+  </si>
+  <si>
+    <t>9076904334-01</t>
+  </si>
+  <si>
+    <t>CAIU7310627</t>
+  </si>
+  <si>
+    <t>9076904533-01</t>
   </si>
   <si>
     <t>INBU5027045</t>
@@ -452,64 +584,52 @@
     <t>MEDUBL011443</t>
   </si>
   <si>
-    <t>CBHU6361553</t>
-  </si>
-  <si>
-    <t>017E</t>
-  </si>
-  <si>
-    <t>9075904312-01</t>
-  </si>
-  <si>
-    <t>COSU6193991550</t>
-  </si>
-  <si>
-    <t>TLLU2405534</t>
-  </si>
-  <si>
-    <t>9075904723-01</t>
-  </si>
-  <si>
-    <t>YMLUE202031183</t>
-  </si>
-  <si>
-    <t>KKFU1810107</t>
-  </si>
-  <si>
-    <t>9074904489-01</t>
-  </si>
-  <si>
-    <t>ONEYBKKV21899900</t>
-  </si>
-  <si>
-    <t>FCIU8445820</t>
-  </si>
-  <si>
-    <t>9074904454-01</t>
-  </si>
-  <si>
-    <t>MEDUBN223160</t>
-  </si>
-  <si>
-    <t>KKFU1849372</t>
-  </si>
-  <si>
-    <t>9073904204-01</t>
-  </si>
-  <si>
-    <t>TCNU7993023</t>
-  </si>
-  <si>
-    <t>9074904985-01</t>
-  </si>
-  <si>
-    <t>MOAU0649132</t>
-  </si>
-  <si>
-    <t>9074904504-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV22371800</t>
+    <t>EGHU1030065</t>
+  </si>
+  <si>
+    <t>9076904241-01</t>
+  </si>
+  <si>
+    <t>CAAU5097269</t>
+  </si>
+  <si>
+    <t>9075904994-01</t>
+  </si>
+  <si>
+    <t>MEDUBL013696</t>
+  </si>
+  <si>
+    <t>CAIU4720649</t>
+  </si>
+  <si>
+    <t>9076904027-01</t>
+  </si>
+  <si>
+    <t>MSCUUW131694</t>
+  </si>
+  <si>
+    <t>CAXU9004680</t>
+  </si>
+  <si>
+    <t>9076904084-01</t>
+  </si>
+  <si>
+    <t>MEDUBN587879</t>
+  </si>
+  <si>
+    <t>TCNU2346092</t>
+  </si>
+  <si>
+    <t>9076904016-01</t>
+  </si>
+  <si>
+    <t>MEDUBN629804</t>
+  </si>
+  <si>
+    <t>MEDU8122420</t>
+  </si>
+  <si>
+    <t>9076904026-01</t>
   </si>
   <si>
     <t>ONEU7034267</t>
@@ -521,31 +641,13 @@
     <t>ONEYSZPV24989400</t>
   </si>
   <si>
-    <t>BMOU1254357</t>
-  </si>
-  <si>
-    <t>9073904739-01</t>
-  </si>
-  <si>
-    <t>YMLUE300627222</t>
-  </si>
-  <si>
-    <t>MSKU9178848</t>
-  </si>
-  <si>
-    <t>9076904123-01</t>
-  </si>
-  <si>
-    <t>MSKU8540680</t>
-  </si>
-  <si>
-    <t>9076904124-01</t>
-  </si>
-  <si>
-    <t>GESU5738882</t>
-  </si>
-  <si>
-    <t>9076904125-01</t>
+    <t>CAIU7770520</t>
+  </si>
+  <si>
+    <t>9076904012-01</t>
+  </si>
+  <si>
+    <t>MEDUBL013050</t>
   </si>
   <si>
     <t>MOFU6724024</t>
@@ -566,46 +668,235 @@
     <t>YMLUE300627863</t>
   </si>
   <si>
-    <t>TCKU3414962</t>
-  </si>
-  <si>
-    <t>9074904485-01</t>
-  </si>
-  <si>
-    <t>MEDU7673449</t>
-  </si>
-  <si>
-    <t>9074904648-01</t>
-  </si>
-  <si>
-    <t>MEDUBN322202</t>
-  </si>
-  <si>
-    <t>NYKU3918581</t>
-  </si>
-  <si>
-    <t>9074904490-01</t>
-  </si>
-  <si>
-    <t>ONEYDACV03534600</t>
-  </si>
-  <si>
-    <t>TTNU5253566</t>
-  </si>
-  <si>
-    <t>9077904310-01</t>
-  </si>
-  <si>
-    <t>MEDUBN455697</t>
-  </si>
-  <si>
-    <t>FSCU4778416</t>
-  </si>
-  <si>
-    <t>9077904164-01</t>
-  </si>
-  <si>
-    <t>MEDUBN451100</t>
+    <t>DFSU7794333</t>
+  </si>
+  <si>
+    <t>9076904748-01</t>
+  </si>
+  <si>
+    <t>MNBU0264394</t>
+  </si>
+  <si>
+    <t>9075904455-01</t>
+  </si>
+  <si>
+    <t>SUDUR9ZRH002131X</t>
+  </si>
+  <si>
+    <t>MRKU0927455</t>
+  </si>
+  <si>
+    <t>914W</t>
+  </si>
+  <si>
+    <t>9076904593-01</t>
+  </si>
+  <si>
+    <t>MAEU581374589</t>
+  </si>
+  <si>
+    <t>CAIU7786681</t>
+  </si>
+  <si>
+    <t>9076904270-01</t>
+  </si>
+  <si>
+    <t>MEDUBL013027</t>
+  </si>
+  <si>
+    <t>SUDU8917211</t>
+  </si>
+  <si>
+    <t>9076904285-01</t>
+  </si>
+  <si>
+    <t>581134678</t>
+  </si>
+  <si>
+    <t>CXDU2140234</t>
+  </si>
+  <si>
+    <t>9076904661-01</t>
+  </si>
+  <si>
+    <t>MEDUBN506770</t>
+  </si>
+  <si>
+    <t>TCLU9137380</t>
+  </si>
+  <si>
+    <t>9076904663-01</t>
+  </si>
+  <si>
+    <t>MEDUBN525523</t>
+  </si>
+  <si>
+    <t>TCLU9102594</t>
+  </si>
+  <si>
+    <t>9076904659-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526109</t>
+  </si>
+  <si>
+    <t>MEDU8308570</t>
+  </si>
+  <si>
+    <t>9076904657-01</t>
+  </si>
+  <si>
+    <t>MEDUBN598777</t>
+  </si>
+  <si>
+    <t>MSDU7050596</t>
+  </si>
+  <si>
+    <t>9076904665-01</t>
+  </si>
+  <si>
+    <t>MEDUBN598827</t>
+  </si>
+  <si>
+    <t>MSCU7979535</t>
+  </si>
+  <si>
+    <t>9076904532-01</t>
+  </si>
+  <si>
+    <t>TGBU2173504</t>
+  </si>
+  <si>
+    <t>9076904414-01</t>
+  </si>
+  <si>
+    <t>HLCUBKK190269723</t>
+  </si>
+  <si>
+    <t>TCKU1728774</t>
+  </si>
+  <si>
+    <t>KOTA PEKARANG</t>
+  </si>
+  <si>
+    <t>001E</t>
+  </si>
+  <si>
+    <t>9077904924-01</t>
+  </si>
+  <si>
+    <t>HDMUBUGA9297835</t>
+  </si>
+  <si>
+    <t>TRHU2209529</t>
+  </si>
+  <si>
+    <t>MSC ESTHI</t>
+  </si>
+  <si>
+    <t>IU912A</t>
+  </si>
+  <si>
+    <t>9071905287-01</t>
+  </si>
+  <si>
+    <t>MEDUMI305423</t>
+  </si>
+  <si>
+    <t>ZIMU3055480</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>9077904210-01</t>
+  </si>
+  <si>
+    <t>ZIMUNGB9305672</t>
+  </si>
+  <si>
+    <t>KKTU8225623</t>
+  </si>
+  <si>
+    <t>9077904193-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV25044800</t>
+  </si>
+  <si>
+    <t>MEDU1883319</t>
+  </si>
+  <si>
+    <t>9071905283-01</t>
+  </si>
+  <si>
+    <t>MEDUMI290443</t>
+  </si>
+  <si>
+    <t>UACU4069532</t>
+  </si>
+  <si>
+    <t>OOCL WASHINGTON</t>
+  </si>
+  <si>
+    <t>9111</t>
+  </si>
+  <si>
+    <t>9077904947-01</t>
+  </si>
+  <si>
+    <t>HLCUBO1190343707</t>
+  </si>
+  <si>
+    <t>HASU1351407</t>
+  </si>
+  <si>
+    <t>9077904773-01</t>
+  </si>
+  <si>
+    <t>MAEU581109903</t>
+  </si>
+  <si>
+    <t>TRHU1954487</t>
+  </si>
+  <si>
+    <t>9071905286-01</t>
+  </si>
+  <si>
+    <t>MEDUMI226959</t>
+  </si>
+  <si>
+    <t>MEDU2999941</t>
+  </si>
+  <si>
+    <t>9071905285-01</t>
+  </si>
+  <si>
+    <t>MEDUMI290476</t>
+  </si>
+  <si>
+    <t>SEGU2318556</t>
+  </si>
+  <si>
+    <t>9077904209-01</t>
+  </si>
+  <si>
+    <t>YMLU8995440</t>
+  </si>
+  <si>
+    <t>9077904659-01</t>
+  </si>
+  <si>
+    <t>YMLUE491301123</t>
+  </si>
+  <si>
+    <t>OOCU6496774</t>
+  </si>
+  <si>
+    <t>9077904829-01</t>
+  </si>
+  <si>
+    <t>OOLU2106184670</t>
   </si>
 </sst>
 </file>
@@ -650,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -717,125 +1008,125 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -843,10 +1134,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -879,58 +1170,58 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -939,439 +1230,439 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -1380,313 +1671,313 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
         <v>45</v>
@@ -1695,83 +1986,605 @@
         <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>267</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" t="s">
+        <v>290</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>292</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" t="s">
+        <v>293</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/WWT/Test.xlsx
+++ b/WWT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="235">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -47,91 +47,40 @@
     <t>MEDUBN493649</t>
   </si>
   <si>
-    <t>EGSU9160639</t>
-  </si>
-  <si>
-    <t>OOCL ASIA</t>
-  </si>
-  <si>
-    <t>130W</t>
-  </si>
-  <si>
-    <t>9076904921-01</t>
-  </si>
-  <si>
-    <t>EGLV567900004480</t>
-  </si>
-  <si>
-    <t>CAXU7306845</t>
-  </si>
-  <si>
-    <t>ONE COMPETENCE</t>
-  </si>
-  <si>
-    <t>065E</t>
-  </si>
-  <si>
-    <t>9071905290-01</t>
-  </si>
-  <si>
-    <t>ONEYSH9FC3111600</t>
-  </si>
-  <si>
-    <t>YMMU4115094</t>
-  </si>
-  <si>
-    <t>MEISHAN BRIDGE</t>
-  </si>
-  <si>
-    <t>004E</t>
-  </si>
-  <si>
-    <t>9076904096-01</t>
-  </si>
-  <si>
-    <t>YMLUE216029602</t>
-  </si>
-  <si>
-    <t>NYKU9729420</t>
-  </si>
-  <si>
-    <t>9074904925-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV26586600</t>
-  </si>
-  <si>
-    <t>TEMU7042636</t>
-  </si>
-  <si>
-    <t>MILANO BRIDGE</t>
-  </si>
-  <si>
-    <t>006E</t>
-  </si>
-  <si>
-    <t>9077904052-01</t>
-  </si>
-  <si>
-    <t>YMLUE425902782</t>
-  </si>
-  <si>
-    <t>KKFU1708651</t>
-  </si>
-  <si>
-    <t>9076904923-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV27307500</t>
-  </si>
-  <si>
-    <t>BSIU2847286</t>
-  </si>
-  <si>
-    <t>9076904090-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV29895500</t>
+    <t>FSCU4824954</t>
+  </si>
+  <si>
+    <t>MOL MAESTRO</t>
+  </si>
+  <si>
+    <t>047E</t>
+  </si>
+  <si>
+    <t>9071905093-01</t>
+  </si>
+  <si>
+    <t>HLCUSHA1903GGHJ0</t>
+  </si>
+  <si>
+    <t>TCLU4716096</t>
+  </si>
+  <si>
+    <t>9071905092-01</t>
+  </si>
+  <si>
+    <t>MOAU7720910</t>
+  </si>
+  <si>
+    <t>YM UBIQUITY</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>9071905091-01</t>
+  </si>
+  <si>
+    <t>ONEYSH9FC0165500</t>
   </si>
   <si>
     <t>CAAU5008744</t>
@@ -143,45 +92,6 @@
     <t>MEDUBL011054</t>
   </si>
   <si>
-    <t>CXDU1160350</t>
-  </si>
-  <si>
-    <t>MSC MARGARITA</t>
-  </si>
-  <si>
-    <t>NG914W</t>
-  </si>
-  <si>
-    <t>9076904530-01</t>
-  </si>
-  <si>
-    <t>MEDUBN608642</t>
-  </si>
-  <si>
-    <t>YMLU3279802</t>
-  </si>
-  <si>
-    <t>9076904928-01</t>
-  </si>
-  <si>
-    <t>YMLUE470011808</t>
-  </si>
-  <si>
-    <t>FSCU8112747</t>
-  </si>
-  <si>
-    <t>9076904425-01</t>
-  </si>
-  <si>
-    <t>MEDUBN531471</t>
-  </si>
-  <si>
-    <t>TEMU8709240</t>
-  </si>
-  <si>
-    <t>9076904534-01</t>
-  </si>
-  <si>
     <t>TLLU6105242</t>
   </si>
   <si>
@@ -212,27 +122,6 @@
     <t>CMDUFOC0150284</t>
   </si>
   <si>
-    <t>CAIU7310627</t>
-  </si>
-  <si>
-    <t>9076904533-01</t>
-  </si>
-  <si>
-    <t>INBU5027045</t>
-  </si>
-  <si>
-    <t>MSC ALESSIA</t>
-  </si>
-  <si>
-    <t>NG912W</t>
-  </si>
-  <si>
-    <t>9073904588-01</t>
-  </si>
-  <si>
-    <t>MEDUBN246708</t>
-  </si>
-  <si>
     <t>MEDU4353380</t>
   </si>
   <si>
@@ -257,58 +146,280 @@
     <t>MEDUBL011443</t>
   </si>
   <si>
-    <t>CAXU9004680</t>
-  </si>
-  <si>
-    <t>9076904084-01</t>
-  </si>
-  <si>
-    <t>MEDUBN587879</t>
-  </si>
-  <si>
-    <t>TCKU4263536</t>
-  </si>
-  <si>
-    <t>9074904570-01</t>
-  </si>
-  <si>
-    <t>YMLUE300627863</t>
-  </si>
-  <si>
-    <t>MSCU7979535</t>
-  </si>
-  <si>
-    <t>9076904532-01</t>
-  </si>
-  <si>
-    <t>MEDU5789430</t>
-  </si>
-  <si>
-    <t>MSC SORAYA</t>
-  </si>
-  <si>
-    <t>9076904929-01</t>
-  </si>
-  <si>
-    <t>MEDUAM572494</t>
-  </si>
-  <si>
-    <t>ZCSU8842957</t>
-  </si>
-  <si>
-    <t>MSC LISBON</t>
-  </si>
-  <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>9072905204-01</t>
-  </si>
-  <si>
-    <t>ZIMUSNH1057747</t>
-  </si>
-  <si>
-    <t>TCNU3710634</t>
+    <t>TCNU2067713</t>
+  </si>
+  <si>
+    <t>EVER LIVEN</t>
+  </si>
+  <si>
+    <t>036E</t>
+  </si>
+  <si>
+    <t>9073905076-01</t>
+  </si>
+  <si>
+    <t>EGLV142900446309</t>
+  </si>
+  <si>
+    <t>MEDU8046905</t>
+  </si>
+  <si>
+    <t>MSC SANA</t>
+  </si>
+  <si>
+    <t>IU907R</t>
+  </si>
+  <si>
+    <t>9072905053-01</t>
+  </si>
+  <si>
+    <t>MEDUBH026834</t>
+  </si>
+  <si>
+    <t>MEDU8287590</t>
+  </si>
+  <si>
+    <t>MSC ILONA</t>
+  </si>
+  <si>
+    <t>NG916W</t>
+  </si>
+  <si>
+    <t>9072905264-01</t>
+  </si>
+  <si>
+    <t>MEDUBL014777</t>
+  </si>
+  <si>
+    <t>MEDU7590220</t>
+  </si>
+  <si>
+    <t>9072905321-01</t>
+  </si>
+  <si>
+    <t>MSCUUW138558</t>
+  </si>
+  <si>
+    <t>CARU9789794</t>
+  </si>
+  <si>
+    <t>9073905176-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526745</t>
+  </si>
+  <si>
+    <t>TCKU1728774</t>
+  </si>
+  <si>
+    <t>KOTA PEKARANG</t>
+  </si>
+  <si>
+    <t>001E</t>
+  </si>
+  <si>
+    <t>9077904924-01</t>
+  </si>
+  <si>
+    <t>HDMUBUGA9297835</t>
+  </si>
+  <si>
+    <t>MEDU4532745</t>
+  </si>
+  <si>
+    <t>9072905478-01</t>
+  </si>
+  <si>
+    <t>MSCUUW137030</t>
+  </si>
+  <si>
+    <t>BEAU4230483</t>
+  </si>
+  <si>
+    <t>9072905468-01</t>
+  </si>
+  <si>
+    <t>MSCUUW138012</t>
+  </si>
+  <si>
+    <t>TEMU8203648</t>
+  </si>
+  <si>
+    <t>MSC SILVANA</t>
+  </si>
+  <si>
+    <t>ME913W</t>
+  </si>
+  <si>
+    <t>9072905161-01</t>
+  </si>
+  <si>
+    <t>MEDUL0112424</t>
+  </si>
+  <si>
+    <t>TLLU5143417</t>
+  </si>
+  <si>
+    <t>9072905147-01</t>
+  </si>
+  <si>
+    <t>MEDUL0112499</t>
+  </si>
+  <si>
+    <t>MOFU0667631</t>
+  </si>
+  <si>
+    <t>YM WORLD</t>
+  </si>
+  <si>
+    <t>021E</t>
+  </si>
+  <si>
+    <t>9072905407-01</t>
+  </si>
+  <si>
+    <t>ONEYBKKV41729300</t>
+  </si>
+  <si>
+    <t>TCNU2461835</t>
+  </si>
+  <si>
+    <t>9072905428-01</t>
+  </si>
+  <si>
+    <t>MSCUUW138384</t>
+  </si>
+  <si>
+    <t>MSCU7544168</t>
+  </si>
+  <si>
+    <t>9072905267-01</t>
+  </si>
+  <si>
+    <t>MSCUUW136693</t>
+  </si>
+  <si>
+    <t>TTNU5191090</t>
+  </si>
+  <si>
+    <t>9072905406-01</t>
+  </si>
+  <si>
+    <t>MSCU5897675</t>
+  </si>
+  <si>
+    <t>MSC RACHELE</t>
+  </si>
+  <si>
+    <t>ME914W</t>
+  </si>
+  <si>
+    <t>9071905634-01</t>
+  </si>
+  <si>
+    <t>MEDUG2028967</t>
+  </si>
+  <si>
+    <t>AMFU8802500</t>
+  </si>
+  <si>
+    <t>9072905465-01</t>
+  </si>
+  <si>
+    <t>MEDUBN679726</t>
+  </si>
+  <si>
+    <t>GLDU5526154</t>
+  </si>
+  <si>
+    <t>MONACO BRIDGE</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>9071905709-01</t>
+  </si>
+  <si>
+    <t>ONEYDACV05532600</t>
+  </si>
+  <si>
+    <t>CAIU3482417</t>
+  </si>
+  <si>
+    <t>9073905980-01</t>
+  </si>
+  <si>
+    <t>YMLUE202031399</t>
+  </si>
+  <si>
+    <t>TCLU9893221</t>
+  </si>
+  <si>
+    <t>9072905469-01</t>
+  </si>
+  <si>
+    <t>CAIU4749302</t>
+  </si>
+  <si>
+    <t>9072905488-01</t>
+  </si>
+  <si>
+    <t>MEDUBL015212</t>
+  </si>
+  <si>
+    <t>MEDU4681184</t>
+  </si>
+  <si>
+    <t>9072905462-01</t>
+  </si>
+  <si>
+    <t>MEDUBN680864</t>
+  </si>
+  <si>
+    <t>ZIMU1309591</t>
+  </si>
+  <si>
+    <t>CCNI ANDES</t>
+  </si>
+  <si>
+    <t>901E</t>
+  </si>
+  <si>
+    <t>9077904849-01</t>
+  </si>
+  <si>
+    <t>ZIMUXNG4151483</t>
+  </si>
+  <si>
+    <t>MSKU9057050</t>
+  </si>
+  <si>
+    <t>916W</t>
+  </si>
+  <si>
+    <t>9071905542-01</t>
+  </si>
+  <si>
+    <t>MAEU581419695</t>
+  </si>
+  <si>
+    <t>ZIMU2955702</t>
+  </si>
+  <si>
+    <t>9077904851-01</t>
+  </si>
+  <si>
+    <t>TRLU9110388</t>
+  </si>
+  <si>
+    <t>9072905672-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV33132500</t>
+  </si>
+  <si>
+    <t>TEMU4399532</t>
   </si>
   <si>
     <t>MSC BILBAO</t>
@@ -317,247 +428,49 @@
     <t>IU913A</t>
   </si>
   <si>
-    <t>9071905870-01</t>
-  </si>
-  <si>
-    <t>MEDURO085233</t>
-  </si>
-  <si>
-    <t>MEDU2095374</t>
-  </si>
-  <si>
-    <t>9072905057-01</t>
-  </si>
-  <si>
-    <t>MEDUMI364602</t>
-  </si>
-  <si>
-    <t>MEDU1421455</t>
-  </si>
-  <si>
-    <t>9072905055-01</t>
-  </si>
-  <si>
-    <t>MEDUMI364537</t>
-  </si>
-  <si>
-    <t>MSKU6179645</t>
-  </si>
-  <si>
-    <t>914W</t>
-  </si>
-  <si>
-    <t>9071905939-01</t>
-  </si>
-  <si>
-    <t>MAEU581144371</t>
-  </si>
-  <si>
-    <t>OOLU3880057</t>
-  </si>
-  <si>
-    <t>9072905943-01</t>
-  </si>
-  <si>
-    <t>OOLU2106038520</t>
-  </si>
-  <si>
-    <t>TCKU1728774</t>
-  </si>
-  <si>
-    <t>KOTA PEKARANG</t>
-  </si>
-  <si>
-    <t>001E</t>
-  </si>
-  <si>
-    <t>9077904924-01</t>
-  </si>
-  <si>
-    <t>HDMUBUGA9297835</t>
-  </si>
-  <si>
-    <t>TLLU6097105</t>
-  </si>
-  <si>
-    <t>9078904318-01</t>
-  </si>
-  <si>
-    <t>ONEYSELV17105700</t>
-  </si>
-  <si>
-    <t>DRYU4047586</t>
-  </si>
-  <si>
-    <t>9078904317-01</t>
-  </si>
-  <si>
-    <t>TLLU6059804</t>
-  </si>
-  <si>
-    <t>YM MASCULINITY</t>
-  </si>
-  <si>
-    <t>056E</t>
-  </si>
-  <si>
-    <t>9077904262-01</t>
-  </si>
-  <si>
-    <t>ONEYDACV04236600</t>
-  </si>
-  <si>
-    <t>TEMU0622720</t>
-  </si>
-  <si>
-    <t>9077904611-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV30664500</t>
-  </si>
-  <si>
-    <t>KKTU8225623</t>
-  </si>
-  <si>
-    <t>9077904193-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV25044800</t>
-  </si>
-  <si>
-    <t>ZCSU8533156</t>
-  </si>
-  <si>
-    <t>9072905203-01</t>
-  </si>
-  <si>
-    <t>ZIMU1102285</t>
-  </si>
-  <si>
-    <t>CCNI ANDES</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>9078904196-01</t>
-  </si>
-  <si>
-    <t>ZIMUNGB9305691</t>
-  </si>
-  <si>
-    <t>TTNU1064179</t>
-  </si>
-  <si>
-    <t>NV914W</t>
-  </si>
-  <si>
-    <t>9078904381-01</t>
-  </si>
-  <si>
-    <t>MEDUBN465506</t>
-  </si>
-  <si>
-    <t>GLDU3018621</t>
-  </si>
-  <si>
-    <t>9078904380-01</t>
-  </si>
-  <si>
-    <t>MEDUBN534129</t>
-  </si>
-  <si>
-    <t>UESU2486796</t>
-  </si>
-  <si>
-    <t>9071905282-01</t>
-  </si>
-  <si>
-    <t>ONEYSH9FC3120600</t>
-  </si>
-  <si>
-    <t>TCNU1435739</t>
-  </si>
-  <si>
-    <t>9071905849-01</t>
-  </si>
-  <si>
-    <t>MEDURO086082</t>
-  </si>
-  <si>
-    <t>NYKU3295650</t>
-  </si>
-  <si>
-    <t>9077904616-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV29974300</t>
-  </si>
-  <si>
-    <t>ZIMU1309591</t>
-  </si>
-  <si>
-    <t>901E</t>
-  </si>
-  <si>
-    <t>9077904849-01</t>
-  </si>
-  <si>
-    <t>ZIMUXNG4151483</t>
-  </si>
-  <si>
-    <t>ZIMU2955702</t>
-  </si>
-  <si>
-    <t>9077904851-01</t>
-  </si>
-  <si>
-    <t>TEMU4399532</t>
-  </si>
-  <si>
     <t>9072905052-01</t>
   </si>
   <si>
     <t>MEDUMI365203</t>
   </si>
   <si>
-    <t>TCKU3162330</t>
-  </si>
-  <si>
-    <t>9072905059-01</t>
-  </si>
-  <si>
-    <t>MEDUMI361657</t>
-  </si>
-  <si>
-    <t>TEMU6631020</t>
-  </si>
-  <si>
-    <t>9071905935-01</t>
-  </si>
-  <si>
-    <t>MEDURO084194</t>
-  </si>
-  <si>
-    <t>TCLU2606680</t>
-  </si>
-  <si>
-    <t>9071905737-01</t>
-  </si>
-  <si>
-    <t>MEDUBN349064</t>
-  </si>
-  <si>
-    <t>DRYU6072090</t>
-  </si>
-  <si>
-    <t>9071905288-01</t>
-  </si>
-  <si>
-    <t>CRSU9050014</t>
-  </si>
-  <si>
-    <t>9072905205-01</t>
+    <t>TEMU6630595</t>
+  </si>
+  <si>
+    <t>9072905487-01</t>
+  </si>
+  <si>
+    <t>MSCU5446780</t>
+  </si>
+  <si>
+    <t>9072905495-01</t>
+  </si>
+  <si>
+    <t>MSCUUW133807</t>
+  </si>
+  <si>
+    <t>DFSU6502020</t>
+  </si>
+  <si>
+    <t>9072905330-01</t>
+  </si>
+  <si>
+    <t>MEDUBN692844</t>
+  </si>
+  <si>
+    <t>BMOU6771455</t>
+  </si>
+  <si>
+    <t>9072905144-01</t>
+  </si>
+  <si>
+    <t>MEDUL0107705</t>
+  </si>
+  <si>
+    <t>BEAU4249827</t>
+  </si>
+  <si>
+    <t>9072905470-01</t>
   </si>
   <si>
     <t>TLLU5049890</t>
@@ -575,31 +488,235 @@
     <t>MAEU581169803</t>
   </si>
   <si>
-    <t>MEDU9479279</t>
-  </si>
-  <si>
-    <t>9078904168-01</t>
-  </si>
-  <si>
-    <t>MEDUGF349534</t>
-  </si>
-  <si>
-    <t>MSCU7878123</t>
-  </si>
-  <si>
-    <t>9071905850-01</t>
-  </si>
-  <si>
-    <t>MEDURO086678</t>
-  </si>
-  <si>
-    <t>OOLU4343880</t>
-  </si>
-  <si>
-    <t>9071905554-01</t>
-  </si>
-  <si>
-    <t>OOLU2106143950</t>
+    <t>MSCU5791894</t>
+  </si>
+  <si>
+    <t>9071905874-01</t>
+  </si>
+  <si>
+    <t>MEDUBN651998</t>
+  </si>
+  <si>
+    <t>MEDU8069829</t>
+  </si>
+  <si>
+    <t>9071905555-01</t>
+  </si>
+  <si>
+    <t>MEDUBN554010</t>
+  </si>
+  <si>
+    <t>TEMU6236426</t>
+  </si>
+  <si>
+    <t>9073905721-01</t>
+  </si>
+  <si>
+    <t>MEDUBN433835</t>
+  </si>
+  <si>
+    <t>MEDU1360827</t>
+  </si>
+  <si>
+    <t>9073905728-01</t>
+  </si>
+  <si>
+    <t>MEDUBN648796</t>
+  </si>
+  <si>
+    <t>MEDU4646882</t>
+  </si>
+  <si>
+    <t>9073905177-01</t>
+  </si>
+  <si>
+    <t>MEDUBN511226</t>
+  </si>
+  <si>
+    <t>TGBU2017712</t>
+  </si>
+  <si>
+    <t>PARSIFAL</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>9074905308-01</t>
+  </si>
+  <si>
+    <t>ZIMUNGB9386204</t>
+  </si>
+  <si>
+    <t>MEDU4017935</t>
+  </si>
+  <si>
+    <t>9073905724-01</t>
+  </si>
+  <si>
+    <t>MEDUBN463998</t>
+  </si>
+  <si>
+    <t>MSCU9849891</t>
+  </si>
+  <si>
+    <t>9073905167-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526885</t>
+  </si>
+  <si>
+    <t>MEDU8939169</t>
+  </si>
+  <si>
+    <t>9073905175-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526943</t>
+  </si>
+  <si>
+    <t>CAIU8330818</t>
+  </si>
+  <si>
+    <t>9073905171-01</t>
+  </si>
+  <si>
+    <t>MEDUBN420717</t>
+  </si>
+  <si>
+    <t>HASU5157489</t>
+  </si>
+  <si>
+    <t>9073905162-01</t>
+  </si>
+  <si>
+    <t>SUDU9BRE007857</t>
+  </si>
+  <si>
+    <t>DFSU7153108</t>
+  </si>
+  <si>
+    <t>9074905031-01</t>
+  </si>
+  <si>
+    <t>MEDUBN511176</t>
+  </si>
+  <si>
+    <t>TCLU7720612</t>
+  </si>
+  <si>
+    <t>9073905977-01</t>
+  </si>
+  <si>
+    <t>MEDUBN479580</t>
+  </si>
+  <si>
+    <t>TCLU9350230</t>
+  </si>
+  <si>
+    <t>CMA CGM IVANHOE</t>
+  </si>
+  <si>
+    <t>0TU69S1MA</t>
+  </si>
+  <si>
+    <t>9073905805-01</t>
+  </si>
+  <si>
+    <t>EGLV090900061206</t>
+  </si>
+  <si>
+    <t>CBHU4208524</t>
+  </si>
+  <si>
+    <t>0895E</t>
+  </si>
+  <si>
+    <t>9073905121-01</t>
+  </si>
+  <si>
+    <t>COSU6199213740</t>
+  </si>
+  <si>
+    <t>FSCU4145980</t>
+  </si>
+  <si>
+    <t>9073905723-01</t>
+  </si>
+  <si>
+    <t>MEDUBN463402</t>
+  </si>
+  <si>
+    <t>DFSU6001944</t>
+  </si>
+  <si>
+    <t>9073905178-01</t>
+  </si>
+  <si>
+    <t>MEDUBN511200</t>
+  </si>
+  <si>
+    <t>GLDU7395480</t>
+  </si>
+  <si>
+    <t>9073905179-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526919</t>
+  </si>
+  <si>
+    <t>GLDU7461469</t>
+  </si>
+  <si>
+    <t>9073905169-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526794</t>
+  </si>
+  <si>
+    <t>MEDU8290418</t>
+  </si>
+  <si>
+    <t>9074905033-01</t>
+  </si>
+  <si>
+    <t>MEDUBN511168</t>
+  </si>
+  <si>
+    <t>INKU6691534</t>
+  </si>
+  <si>
+    <t>9073905170-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526836</t>
+  </si>
+  <si>
+    <t>DFSU7158476</t>
+  </si>
+  <si>
+    <t>9074905028-01</t>
+  </si>
+  <si>
+    <t>MEDUBN418695</t>
+  </si>
+  <si>
+    <t>MEDU8369071</t>
+  </si>
+  <si>
+    <t>9073905172-01</t>
+  </si>
+  <si>
+    <t>MEDUBN526901</t>
+  </si>
+  <si>
+    <t>TCNU7679347</t>
+  </si>
+  <si>
+    <t>9073905174-01</t>
+  </si>
+  <si>
+    <t>MEDUBN511234</t>
   </si>
 </sst>
 </file>
@@ -644,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -711,112 +828,112 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -825,58 +942,58 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -891,82 +1008,82 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -981,10 +1098,10 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
@@ -999,226 +1116,226 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>119</v>
@@ -1233,136 +1350,136 @@
         <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
         <v>146</v>
@@ -1377,10 +1494,10 @@
         <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
@@ -1395,64 +1512,64 @@
         <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>152</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
         <v>162</v>
@@ -1467,197 +1584,395 @@
         <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
         <v>165</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/WWT/Test.xlsx
+++ b/WWT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -129,15 +129,6 @@
   </si>
   <si>
     <t>MAEU581407303</t>
-  </si>
-  <si>
-    <t>GLDU9669533</t>
-  </si>
-  <si>
-    <t>9071905279-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV37250300</t>
   </si>
   <si>
     <t>TCKU4389308</t>
@@ -902,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1059,118 +1050,118 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -1185,10 +1176,10 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -1203,28 +1194,28 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>78</v>
@@ -1239,28 +1230,28 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -1275,10 +1266,10 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
@@ -1293,10 +1284,10 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>91</v>
@@ -1311,28 +1302,28 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
@@ -1347,10 +1338,10 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -1365,10 +1356,10 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>105</v>
@@ -1383,10 +1374,10 @@
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>108</v>
@@ -1401,10 +1392,10 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1419,10 +1410,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -1437,10 +1428,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -1455,10 +1446,10 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
         <v>120</v>
@@ -1473,10 +1464,10 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>123</v>
@@ -1491,53 +1482,53 @@
         <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>131</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -1545,10 +1536,10 @@
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
         <v>136</v>
@@ -1563,10 +1554,10 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>139</v>
@@ -1581,10 +1572,10 @@
         <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>142</v>
@@ -1599,28 +1590,28 @@
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>149</v>
@@ -1653,10 +1644,10 @@
         <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>155</v>
@@ -1671,46 +1662,46 @@
         <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
         <v>160</v>
       </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
         <v>165</v>
@@ -1725,10 +1716,10 @@
         <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
         <v>168</v>
@@ -1743,10 +1734,10 @@
         <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
         <v>171</v>
@@ -1761,10 +1752,10 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>174</v>
@@ -1779,10 +1770,10 @@
         <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>177</v>
@@ -1797,10 +1788,10 @@
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
         <v>180</v>
@@ -1815,28 +1806,28 @@
         <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
         <v>188</v>
@@ -1851,10 +1842,10 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
         <v>191</v>
@@ -1869,10 +1860,10 @@
         <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
         <v>194</v>
@@ -1887,10 +1878,10 @@
         <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
         <v>197</v>
@@ -1905,35 +1896,35 @@
         <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
         <v>200</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
         <v>202</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" t="s">
-        <v>203</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58">
@@ -1941,10 +1932,10 @@
         <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
         <v>205</v>
@@ -1959,10 +1950,10 @@
         <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
         <v>208</v>
@@ -1980,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
         <v>211</v>
@@ -1998,7 +1989,7 @@
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
         <v>214</v>
@@ -2016,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
         <v>217</v>
@@ -2034,32 +2025,32 @@
         <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
         <v>220</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
         <v>222</v>
-      </c>
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>223</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65">
@@ -2070,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
         <v>225</v>
@@ -2088,7 +2079,7 @@
         <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
         <v>228</v>
@@ -2106,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
         <v>231</v>
@@ -2124,7 +2115,7 @@
         <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
         <v>234</v>
@@ -2142,7 +2133,7 @@
         <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
         <v>237</v>
@@ -2160,7 +2151,7 @@
         <v>35</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>240</v>
@@ -2178,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
         <v>243</v>
@@ -2196,7 +2187,7 @@
         <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
         <v>246</v>
@@ -2214,7 +2205,7 @@
         <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
         <v>249</v>
@@ -2232,7 +2223,7 @@
         <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
         <v>252</v>
@@ -2250,7 +2241,7 @@
         <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
         <v>255</v>
@@ -2268,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D76" t="s">
         <v>258</v>
@@ -2286,7 +2277,7 @@
         <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
         <v>261</v>
@@ -2304,32 +2295,32 @@
         <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s">
         <v>264</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" t="s">
         <v>266</v>
-      </c>
-      <c r="B79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" t="s">
-        <v>267</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80">
@@ -2340,32 +2331,32 @@
         <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
         <v>269</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
         <v>271</v>
-      </c>
-      <c r="B81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" t="s">
-        <v>272</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82">
@@ -2376,7 +2367,7 @@
         <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
         <v>274</v>
@@ -2394,7 +2385,7 @@
         <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
         <v>277</v>
@@ -2402,24 +2393,6 @@
       <c r="E83"/>
       <c r="F83" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>279</v>
-      </c>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" t="s">
-        <v>280</v>
-      </c>
-      <c r="E84"/>
-      <c r="F84" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/WWT/Test.xlsx
+++ b/WWT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="229">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,19 +32,19 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>SEGU6169888</t>
-  </si>
-  <si>
-    <t>NYK CRANE</t>
-  </si>
-  <si>
-    <t>013E</t>
-  </si>
-  <si>
-    <t>9073905670-01</t>
-  </si>
-  <si>
-    <t>YMLUE425902935</t>
+    <t>INKU6654802</t>
+  </si>
+  <si>
+    <t>CONTI CORTESIA</t>
+  </si>
+  <si>
+    <t>IU909R</t>
+  </si>
+  <si>
+    <t>9073905572-01</t>
+  </si>
+  <si>
+    <t>MEDUBH028723</t>
   </si>
   <si>
     <t>GLDU5526154</t>
@@ -62,21 +62,6 @@
     <t>ONEYDACV05532600</t>
   </si>
   <si>
-    <t>UACU4152272</t>
-  </si>
-  <si>
-    <t>MOL MAESTRO</t>
-  </si>
-  <si>
-    <t>047E</t>
-  </si>
-  <si>
-    <t>9071905858-01</t>
-  </si>
-  <si>
-    <t>HLCUSHA1903GGEF0</t>
-  </si>
-  <si>
     <t>MSKU9057050</t>
   </si>
   <si>
@@ -92,30 +77,6 @@
     <t>MAEU581419695</t>
   </si>
   <si>
-    <t>TRLU9110388</t>
-  </si>
-  <si>
-    <t>YM WORLD</t>
-  </si>
-  <si>
-    <t>021E</t>
-  </si>
-  <si>
-    <t>9072905672-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV33132500</t>
-  </si>
-  <si>
-    <t>NYKU3508381</t>
-  </si>
-  <si>
-    <t>9072905935-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV35304800</t>
-  </si>
-  <si>
     <t>PONU7970542</t>
   </si>
   <si>
@@ -146,495 +107,285 @@
     <t>ONEYSELV32642300</t>
   </si>
   <si>
-    <t>CAIU2380679</t>
-  </si>
-  <si>
-    <t>COSCO HOPE</t>
-  </si>
-  <si>
-    <t>0UP3DE1MA</t>
-  </si>
-  <si>
-    <t>9075905690-01</t>
-  </si>
-  <si>
-    <t>CMDUFOC0151385</t>
-  </si>
-  <si>
-    <t>TCNU1358550</t>
+    <t>HLXU8446562</t>
+  </si>
+  <si>
+    <t>CHARLESTON EXPRESS</t>
+  </si>
+  <si>
+    <t>068W</t>
+  </si>
+  <si>
+    <t>9076905322-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR190490229</t>
+  </si>
+  <si>
+    <t>TEMU7967662</t>
+  </si>
+  <si>
+    <t>AXEL MAERSK</t>
+  </si>
+  <si>
+    <t>915W</t>
+  </si>
+  <si>
+    <t>9075905431-01</t>
+  </si>
+  <si>
+    <t>MEDUJK752858</t>
+  </si>
+  <si>
+    <t>MRKU5187428</t>
+  </si>
+  <si>
+    <t>MSC BARBARA</t>
+  </si>
+  <si>
+    <t>917W</t>
+  </si>
+  <si>
+    <t>9076905299-01</t>
+  </si>
+  <si>
+    <t>MAEU581148310</t>
+  </si>
+  <si>
+    <t>TCKU6050524</t>
+  </si>
+  <si>
+    <t>9076905319-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904AOXP4</t>
+  </si>
+  <si>
+    <t>TCNU9443474</t>
+  </si>
+  <si>
+    <t>9076905317-01</t>
+  </si>
+  <si>
+    <t>CLHU8621177</t>
+  </si>
+  <si>
+    <t>9076905316-01</t>
+  </si>
+  <si>
+    <t>HMMU6089382</t>
+  </si>
+  <si>
+    <t>ZIM DJIBOUTI</t>
+  </si>
+  <si>
+    <t>065E</t>
+  </si>
+  <si>
+    <t>9074905661-01</t>
+  </si>
+  <si>
+    <t>HDMUQIWB5716859</t>
+  </si>
+  <si>
+    <t>TGHU7940410</t>
+  </si>
+  <si>
+    <t>9076905321-01</t>
+  </si>
+  <si>
+    <t>HLCUHAM190495048</t>
+  </si>
+  <si>
+    <t>TDRU4522598</t>
+  </si>
+  <si>
+    <t>65E</t>
+  </si>
+  <si>
+    <t>9074905702-01</t>
+  </si>
+  <si>
+    <t>ZIMUNGB9386323</t>
+  </si>
+  <si>
+    <t>CNIU1175928</t>
+  </si>
+  <si>
+    <t>965E</t>
+  </si>
+  <si>
+    <t>9074905703-01</t>
+  </si>
+  <si>
+    <t>SUDUN9SHA025145X</t>
+  </si>
+  <si>
+    <t>DFSU6600351</t>
+  </si>
+  <si>
+    <t>NG917W</t>
+  </si>
+  <si>
+    <t>9074905917-01</t>
+  </si>
+  <si>
+    <t>MEDUBN703948</t>
+  </si>
+  <si>
+    <t>CCLU4952937</t>
+  </si>
+  <si>
+    <t>EVER LAMBENT</t>
+  </si>
+  <si>
+    <t>0897E</t>
+  </si>
+  <si>
+    <t>9075905488-01</t>
+  </si>
+  <si>
+    <t>COSU6206772570</t>
+  </si>
+  <si>
+    <t>ZCSU9031379</t>
+  </si>
+  <si>
+    <t>9074905698-01</t>
+  </si>
+  <si>
+    <t>GLDU5077480</t>
+  </si>
+  <si>
+    <t>NG918W</t>
+  </si>
+  <si>
+    <t>9074905288-01</t>
+  </si>
+  <si>
+    <t>MEDUAM681204</t>
+  </si>
+  <si>
+    <t>FSCU6397105</t>
+  </si>
+  <si>
+    <t>9075905108-01</t>
+  </si>
+  <si>
+    <t>MEDUAM639749</t>
+  </si>
+  <si>
+    <t>MRKU0524450</t>
+  </si>
+  <si>
+    <t>9075905404-01</t>
+  </si>
+  <si>
+    <t>581048976</t>
+  </si>
+  <si>
+    <t>BMOU5096223</t>
+  </si>
+  <si>
+    <t>9076905320-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904AUHW0</t>
+  </si>
+  <si>
+    <t>TCLU4764875</t>
+  </si>
+  <si>
+    <t>9073905596-01</t>
+  </si>
+  <si>
+    <t>ONEYSH9FC3156800</t>
+  </si>
+  <si>
+    <t>MEDU4508625</t>
+  </si>
+  <si>
+    <t>AGIOS DIMITRIOS</t>
+  </si>
+  <si>
+    <t>UA915R</t>
+  </si>
+  <si>
+    <t>9075905145-01</t>
+  </si>
+  <si>
+    <t>MEDUSA073502</t>
+  </si>
+  <si>
+    <t>TCNU6700310</t>
+  </si>
+  <si>
+    <t>9076905318-01</t>
+  </si>
+  <si>
+    <t>TGHU6982556</t>
+  </si>
+  <si>
+    <t>9075905146-01</t>
+  </si>
+  <si>
+    <t>MEDUSA073510</t>
+  </si>
+  <si>
+    <t>KKTU7774022</t>
+  </si>
+  <si>
+    <t>9075905878-01</t>
+  </si>
+  <si>
+    <t>ONEYSELV27438300</t>
+  </si>
+  <si>
+    <t>TCNU1367275</t>
+  </si>
+  <si>
+    <t>9074905918-01</t>
+  </si>
+  <si>
+    <t>MEDUBN527628</t>
+  </si>
+  <si>
+    <t>TDRU4522690</t>
+  </si>
+  <si>
+    <t>9074905700-01</t>
+  </si>
+  <si>
+    <t>TCNU6705647</t>
+  </si>
+  <si>
+    <t>9074905662-01</t>
+  </si>
+  <si>
+    <t>MEDUQD602874</t>
+  </si>
+  <si>
+    <t>TTNU4099203</t>
+  </si>
+  <si>
+    <t>9075905113-01</t>
+  </si>
+  <si>
+    <t>NB9BS0737400</t>
+  </si>
+  <si>
+    <t>MSDU7101100</t>
   </si>
   <si>
     <t>MAERSK KOWLOON</t>
   </si>
   <si>
-    <t>915W</t>
-  </si>
-  <si>
-    <t>9075905495-01</t>
-  </si>
-  <si>
-    <t>MEDUL0117506</t>
-  </si>
-  <si>
-    <t>TEMU7967662</t>
-  </si>
-  <si>
-    <t>AXEL MAERSK</t>
-  </si>
-  <si>
-    <t>9075905431-01</t>
-  </si>
-  <si>
-    <t>MEDUJK752858</t>
-  </si>
-  <si>
-    <t>MRKU5187428</t>
-  </si>
-  <si>
-    <t>MSC BARBARA</t>
-  </si>
-  <si>
-    <t>917W</t>
-  </si>
-  <si>
-    <t>9076905299-01</t>
-  </si>
-  <si>
-    <t>MAEU581148310</t>
-  </si>
-  <si>
-    <t>MEDU7429520</t>
-  </si>
-  <si>
-    <t>NG918W</t>
-  </si>
-  <si>
-    <t>9074905254-01</t>
-  </si>
-  <si>
-    <t>MEDUBN649000</t>
-  </si>
-  <si>
-    <t>MEDU4834961</t>
-  </si>
-  <si>
-    <t>9074905851-01</t>
-  </si>
-  <si>
-    <t>MEDUL0116805</t>
-  </si>
-  <si>
-    <t>TEMU8271220</t>
-  </si>
-  <si>
-    <t>9074905862-01</t>
-  </si>
-  <si>
-    <t>MEDUL0118264</t>
-  </si>
-  <si>
-    <t>DFSU6600351</t>
-  </si>
-  <si>
-    <t>NG917W</t>
-  </si>
-  <si>
-    <t>9074905917-01</t>
-  </si>
-  <si>
-    <t>MEDUBN703948</t>
-  </si>
-  <si>
-    <t>GLDU5077480</t>
-  </si>
-  <si>
-    <t>9074905288-01</t>
-  </si>
-  <si>
-    <t>MEDUAM681204</t>
-  </si>
-  <si>
-    <t>EITU0091236</t>
-  </si>
-  <si>
-    <t>035E</t>
-  </si>
-  <si>
-    <t>9075905087-01</t>
-  </si>
-  <si>
-    <t>147900124396</t>
-  </si>
-  <si>
-    <t>CLHU9039319</t>
-  </si>
-  <si>
-    <t>9075905610-01</t>
-  </si>
-  <si>
-    <t>MEDUBN705919</t>
-  </si>
-  <si>
-    <t>TRLU6988214</t>
-  </si>
-  <si>
-    <t>9073905595-01</t>
-  </si>
-  <si>
-    <t>ONEYSH9FC3156800</t>
-  </si>
-  <si>
-    <t>MSDU7534651</t>
-  </si>
-  <si>
-    <t>9075905509-01</t>
-  </si>
-  <si>
-    <t>MEDURO091108</t>
-  </si>
-  <si>
-    <t>PONU7233247</t>
-  </si>
-  <si>
-    <t>DUBLIN EXPRESS</t>
-  </si>
-  <si>
-    <t>916N</t>
-  </si>
-  <si>
-    <t>9075905753-01</t>
-  </si>
-  <si>
-    <t>SUDUB9SCL0127881</t>
-  </si>
-  <si>
-    <t>UETU4092218</t>
-  </si>
-  <si>
-    <t>9074905325-01</t>
-  </si>
-  <si>
-    <t>ONEYSZPV36655400</t>
-  </si>
-  <si>
-    <t>CAIU4777990</t>
-  </si>
-  <si>
-    <t>9075905553-01</t>
-  </si>
-  <si>
-    <t>MEDUL0118306</t>
-  </si>
-  <si>
-    <t>MEDU4547956</t>
-  </si>
-  <si>
-    <t>9075905101-01</t>
-  </si>
-  <si>
-    <t>MEDUBN688511</t>
-  </si>
-  <si>
-    <t>TGHU7697070</t>
-  </si>
-  <si>
-    <t>9075905501-01</t>
-  </si>
-  <si>
-    <t>MEDUL0116649</t>
-  </si>
-  <si>
-    <t>CAIU7001886</t>
-  </si>
-  <si>
-    <t>9075905494-01</t>
-  </si>
-  <si>
-    <t>MEDUL0114867</t>
-  </si>
-  <si>
-    <t>FCIU8925579</t>
-  </si>
-  <si>
-    <t>9075905810-01</t>
-  </si>
-  <si>
-    <t>MEDUBN802245</t>
-  </si>
-  <si>
-    <t>CRXU9456690</t>
-  </si>
-  <si>
-    <t>9075905535-01</t>
-  </si>
-  <si>
-    <t>MEDURO089094</t>
-  </si>
-  <si>
-    <t>FSCU6397105</t>
-  </si>
-  <si>
-    <t>9075905108-01</t>
-  </si>
-  <si>
-    <t>MEDUAM639749</t>
-  </si>
-  <si>
-    <t>TGBU5582580</t>
-  </si>
-  <si>
-    <t>9074905856-01</t>
-  </si>
-  <si>
-    <t>MEDUL0117670</t>
-  </si>
-  <si>
-    <t>MSCU3722868</t>
-  </si>
-  <si>
-    <t>MSC PAMELA</t>
-  </si>
-  <si>
-    <t>IU915A</t>
-  </si>
-  <si>
-    <t>9075905224-01</t>
-  </si>
-  <si>
-    <t>MEDUMI536118</t>
-  </si>
-  <si>
-    <t>TCNU5972741</t>
-  </si>
-  <si>
-    <t>9073905594-01</t>
-  </si>
-  <si>
-    <t>MEDU8926053</t>
-  </si>
-  <si>
-    <t>9075905205-01</t>
-  </si>
-  <si>
-    <t>MEDUBN571881</t>
-  </si>
-  <si>
-    <t>CAIU9857357</t>
-  </si>
-  <si>
-    <t>9074905867-01</t>
-  </si>
-  <si>
-    <t>MEDUL0115211</t>
-  </si>
-  <si>
-    <t>MRKU0524450</t>
-  </si>
-  <si>
-    <t>9075905404-01</t>
-  </si>
-  <si>
-    <t>581048976</t>
-  </si>
-  <si>
-    <t>MEDU4922620</t>
-  </si>
-  <si>
-    <t>9074905849-01</t>
-  </si>
-  <si>
-    <t>MEDUL0115088</t>
-  </si>
-  <si>
-    <t>KKFU1850455</t>
-  </si>
-  <si>
-    <t>ONE CONTRIBUTION</t>
-  </si>
-  <si>
-    <t>9075905378-01</t>
-  </si>
-  <si>
-    <t>ONEYSELV33155300</t>
-  </si>
-  <si>
-    <t>CAIU4091994</t>
-  </si>
-  <si>
-    <t>9074905326-01</t>
-  </si>
-  <si>
-    <t>HLCUHKG1903ARQS2</t>
-  </si>
-  <si>
-    <t>UACU8513250</t>
-  </si>
-  <si>
-    <t>9074905328-01</t>
-  </si>
-  <si>
-    <t>HLCUSZX1903BFQZ8</t>
-  </si>
-  <si>
-    <t>CAIU4747336</t>
-  </si>
-  <si>
-    <t>9075905523-01</t>
-  </si>
-  <si>
-    <t>MEDUL0118322</t>
-  </si>
-  <si>
-    <t>TCLU4764875</t>
-  </si>
-  <si>
-    <t>9073905596-01</t>
-  </si>
-  <si>
-    <t>MEDU4508625</t>
-  </si>
-  <si>
-    <t>AGIOS DIMITRIOS</t>
-  </si>
-  <si>
-    <t>UA915R</t>
-  </si>
-  <si>
-    <t>9075905145-01</t>
-  </si>
-  <si>
-    <t>MEDUSA073502</t>
-  </si>
-  <si>
-    <t>TGHU6982556</t>
-  </si>
-  <si>
-    <t>9075905146-01</t>
-  </si>
-  <si>
-    <t>MEDUSA073510</t>
-  </si>
-  <si>
-    <t>KKTU7774022</t>
-  </si>
-  <si>
-    <t>9075905878-01</t>
-  </si>
-  <si>
-    <t>ONEYSELV27438300</t>
-  </si>
-  <si>
-    <t>TTNU1123991</t>
-  </si>
-  <si>
-    <t>9075905673-01</t>
-  </si>
-  <si>
-    <t>MAEU581363417</t>
-  </si>
-  <si>
-    <t>CAIU4601125</t>
-  </si>
-  <si>
-    <t>9074905860-01</t>
-  </si>
-  <si>
-    <t>MEDUL0118249</t>
-  </si>
-  <si>
-    <t>MSCU9401485</t>
-  </si>
-  <si>
-    <t>9076905135-01</t>
-  </si>
-  <si>
-    <t>MEDUBN598488</t>
-  </si>
-  <si>
-    <t>TCNU1367275</t>
-  </si>
-  <si>
-    <t>9074905918-01</t>
-  </si>
-  <si>
-    <t>MEDUBN527628</t>
-  </si>
-  <si>
-    <t>CBHU4208524</t>
-  </si>
-  <si>
-    <t>EVER LIVEN</t>
-  </si>
-  <si>
-    <t>0895E</t>
-  </si>
-  <si>
-    <t>9073905121-01</t>
-  </si>
-  <si>
-    <t>COSU6199213740</t>
-  </si>
-  <si>
-    <t>UETU4147692</t>
-  </si>
-  <si>
-    <t>9073905592-01</t>
-  </si>
-  <si>
-    <t>ONEYSH9FC0154300</t>
-  </si>
-  <si>
-    <t>MSKU6260382</t>
-  </si>
-  <si>
-    <t>9074905718-01</t>
-  </si>
-  <si>
-    <t>581157790</t>
-  </si>
-  <si>
-    <t>TCLU4878332</t>
-  </si>
-  <si>
-    <t>9074905203-01</t>
-  </si>
-  <si>
-    <t>MEDUBN760328</t>
-  </si>
-  <si>
-    <t>TTNU4099203</t>
-  </si>
-  <si>
-    <t>9075905113-01</t>
-  </si>
-  <si>
-    <t>NB9BS0737400</t>
-  </si>
-  <si>
-    <t>MRKU3031098</t>
-  </si>
-  <si>
-    <t>9075905755-01</t>
-  </si>
-  <si>
-    <t>MSDU7101100</t>
-  </si>
-  <si>
     <t>9075905504-01</t>
   </si>
   <si>
     <t>MEDUL0117514</t>
   </si>
   <si>
-    <t>TCNU3620633</t>
-  </si>
-  <si>
-    <t>9075905544-01</t>
-  </si>
-  <si>
-    <t>MEDUL0113596</t>
-  </si>
-  <si>
     <t>CAXU8094592</t>
   </si>
   <si>
@@ -686,22 +437,46 @@
     <t>MEDUBN659231</t>
   </si>
   <si>
-    <t>LCRU9603348</t>
-  </si>
-  <si>
-    <t>9076905406-01</t>
-  </si>
-  <si>
-    <t>MEDUBN705950</t>
-  </si>
-  <si>
-    <t>TCNU2354117</t>
-  </si>
-  <si>
-    <t>9077905120-01</t>
-  </si>
-  <si>
-    <t>MEDUBN815171</t>
+    <t>MSCU4364898</t>
+  </si>
+  <si>
+    <t>9076905620-01</t>
+  </si>
+  <si>
+    <t>MEDUN2341448</t>
+  </si>
+  <si>
+    <t>NYKU4088410</t>
+  </si>
+  <si>
+    <t>NYK FALCON</t>
+  </si>
+  <si>
+    <t>010E</t>
+  </si>
+  <si>
+    <t>9076905361-01</t>
+  </si>
+  <si>
+    <t>ONEYTPEV21230300</t>
+  </si>
+  <si>
+    <t>HLBU1394264</t>
+  </si>
+  <si>
+    <t>9076905623-01</t>
+  </si>
+  <si>
+    <t>HLCUBKK190353031</t>
+  </si>
+  <si>
+    <t>MOFU5842465</t>
+  </si>
+  <si>
+    <t>9076905624-01</t>
+  </si>
+  <si>
+    <t>ONEYBKKV46950400</t>
   </si>
   <si>
     <t>TEMU8272757</t>
@@ -731,6 +506,15 @@
     <t>MEDUBN704656</t>
   </si>
   <si>
+    <t>TCNU3525425</t>
+  </si>
+  <si>
+    <t>9076905927-01</t>
+  </si>
+  <si>
+    <t>MAEU968583800</t>
+  </si>
+  <si>
     <t>TGHU6090328</t>
   </si>
   <si>
@@ -749,6 +533,15 @@
     <t>MEDUBN705265</t>
   </si>
   <si>
+    <t>BMOU4290569</t>
+  </si>
+  <si>
+    <t>9076905619-01</t>
+  </si>
+  <si>
+    <t>HLCUSZX1903AZPZ0</t>
+  </si>
+  <si>
     <t>FCIU7418245</t>
   </si>
   <si>
@@ -758,6 +551,21 @@
     <t>MEDUBN704789</t>
   </si>
   <si>
+    <t>TRLU8741223</t>
+  </si>
+  <si>
+    <t>YM UNIFORMITY</t>
+  </si>
+  <si>
+    <t>041E</t>
+  </si>
+  <si>
+    <t>9076905705-01</t>
+  </si>
+  <si>
+    <t>ONEYDL8CT0780700</t>
+  </si>
+  <si>
     <t>TGHU8724740</t>
   </si>
   <si>
@@ -767,6 +575,21 @@
     <t>MEDUBN705240</t>
   </si>
   <si>
+    <t>TCLU3537331</t>
+  </si>
+  <si>
+    <t>9076905557-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV44159900</t>
+  </si>
+  <si>
+    <t>TCNU9630433</t>
+  </si>
+  <si>
+    <t>9076905364-01</t>
+  </si>
+  <si>
     <t>INBU5229513</t>
   </si>
   <si>
@@ -794,6 +617,15 @@
     <t>MEDUBN703229</t>
   </si>
   <si>
+    <t>HLXU5206758</t>
+  </si>
+  <si>
+    <t>9076905621-01</t>
+  </si>
+  <si>
+    <t>HLCUSZX1903BODJ2</t>
+  </si>
+  <si>
     <t>DFSU6589123</t>
   </si>
   <si>
@@ -803,12 +635,24 @@
     <t>MEDUBN643573</t>
   </si>
   <si>
+    <t>SEGU4899634</t>
+  </si>
+  <si>
+    <t>9076905362-01</t>
+  </si>
+  <si>
     <t>GLDU7543401</t>
   </si>
   <si>
     <t>9076905480-01</t>
   </si>
   <si>
+    <t>HLXU5231690</t>
+  </si>
+  <si>
+    <t>9076905622-01</t>
+  </si>
+  <si>
     <t>BMOU6888816</t>
   </si>
   <si>
@@ -822,6 +666,12 @@
   </si>
   <si>
     <t>9076905482-01</t>
+  </si>
+  <si>
+    <t>NYKU8498028</t>
+  </si>
+  <si>
+    <t>9076905625-01</t>
   </si>
   <si>
     <t>CXDU2002472</t>
@@ -893,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1014,64 +864,64 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -1086,1313 +936,1061 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>240</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>242</v>
-      </c>
-      <c r="B71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="s">
-        <v>243</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>245</v>
-      </c>
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" t="s">
-        <v>246</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>248</v>
-      </c>
-      <c r="B73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>251</v>
-      </c>
-      <c r="B74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" t="s">
-        <v>252</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>254</v>
-      </c>
-      <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" t="s">
-        <v>255</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" t="s">
-        <v>258</v>
-      </c>
-      <c r="E76"/>
-      <c r="F76" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>260</v>
-      </c>
-      <c r="B77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" t="s">
-        <v>261</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>263</v>
-      </c>
-      <c r="B78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" t="s">
-        <v>264</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>265</v>
-      </c>
-      <c r="B79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>268</v>
-      </c>
-      <c r="B80" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" t="s">
-        <v>269</v>
-      </c>
-      <c r="E80"/>
-      <c r="F80" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" t="s">
-        <v>271</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>273</v>
-      </c>
-      <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>276</v>
-      </c>
-      <c r="B83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" t="s">
-        <v>277</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/WWT/Test.xlsx
+++ b/WWT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="175">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,138 +32,42 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>INKU6654802</t>
-  </si>
-  <si>
-    <t>CONTI CORTESIA</t>
-  </si>
-  <si>
-    <t>IU909R</t>
-  </si>
-  <si>
-    <t>9073905572-01</t>
-  </si>
-  <si>
-    <t>MEDUBH028723</t>
-  </si>
-  <si>
-    <t>GLDU5526154</t>
-  </si>
-  <si>
-    <t>MONACO BRIDGE</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>9071905709-01</t>
-  </si>
-  <si>
-    <t>ONEYDACV05532600</t>
-  </si>
-  <si>
-    <t>MSKU9057050</t>
-  </si>
-  <si>
-    <t>MSC ILONA</t>
-  </si>
-  <si>
-    <t>916W</t>
-  </si>
-  <si>
-    <t>9071905542-01</t>
-  </si>
-  <si>
-    <t>MAEU581419695</t>
-  </si>
-  <si>
-    <t>PONU7970542</t>
+    <t>IPXU3340093</t>
+  </si>
+  <si>
+    <t>APL CHARLESTON</t>
+  </si>
+  <si>
+    <t>0VC37E1MA</t>
+  </si>
+  <si>
+    <t>9072905643-01</t>
+  </si>
+  <si>
+    <t>COSU6207321290</t>
+  </si>
+  <si>
+    <t>MOFU0739618</t>
+  </si>
+  <si>
+    <t>HUMEN BRIDGE</t>
+  </si>
+  <si>
+    <t>070E</t>
+  </si>
+  <si>
+    <t>9074905720-01</t>
+  </si>
+  <si>
+    <t>ONEYSELV36254600</t>
+  </si>
+  <si>
+    <t>GLDU5077480</t>
   </si>
   <si>
     <t>MSC ALESSIA</t>
   </si>
   <si>
-    <t>918W</t>
-  </si>
-  <si>
-    <t>9071905972-01</t>
-  </si>
-  <si>
-    <t>MAEU581407303</t>
-  </si>
-  <si>
-    <t>HLXU8446562</t>
-  </si>
-  <si>
-    <t>CHARLESTON EXPRESS</t>
-  </si>
-  <si>
-    <t>068W</t>
-  </si>
-  <si>
-    <t>9076905322-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR190490229</t>
-  </si>
-  <si>
-    <t>TCKU6050524</t>
-  </si>
-  <si>
-    <t>9076905319-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR1904AOXP4</t>
-  </si>
-  <si>
-    <t>TGHU7940410</t>
-  </si>
-  <si>
-    <t>9076905321-01</t>
-  </si>
-  <si>
-    <t>HLCUHAM190495048</t>
-  </si>
-  <si>
-    <t>TDRU4522598</t>
-  </si>
-  <si>
-    <t>ZIM DJIBOUTI</t>
-  </si>
-  <si>
-    <t>65E</t>
-  </si>
-  <si>
-    <t>9074905702-01</t>
-  </si>
-  <si>
-    <t>ZIMUNGB9386323</t>
-  </si>
-  <si>
-    <t>CCLU4952937</t>
-  </si>
-  <si>
-    <t>EVER LAMBENT</t>
-  </si>
-  <si>
-    <t>0897E</t>
-  </si>
-  <si>
-    <t>9075905488-01</t>
-  </si>
-  <si>
-    <t>COSU6206772570</t>
-  </si>
-  <si>
-    <t>ZCSU9031379</t>
-  </si>
-  <si>
-    <t>9074905698-01</t>
-  </si>
-  <si>
-    <t>GLDU5077480</t>
-  </si>
-  <si>
     <t>NG918W</t>
   </si>
   <si>
@@ -173,121 +77,166 @@
     <t>MEDUAM681204</t>
   </si>
   <si>
-    <t>FSCU6397105</t>
-  </si>
-  <si>
-    <t>9075905108-01</t>
-  </si>
-  <si>
-    <t>MEDUAM639749</t>
-  </si>
-  <si>
-    <t>BMOU5096223</t>
-  </si>
-  <si>
-    <t>9076905320-01</t>
-  </si>
-  <si>
-    <t>HLCUEUR1904AUHW0</t>
-  </si>
-  <si>
-    <t>TCNU6700310</t>
-  </si>
-  <si>
-    <t>9076905318-01</t>
-  </si>
-  <si>
-    <t>KKTU7774022</t>
-  </si>
-  <si>
-    <t>MOL MAJESTY</t>
-  </si>
-  <si>
-    <t>051E</t>
-  </si>
-  <si>
-    <t>9075905878-01</t>
-  </si>
-  <si>
-    <t>ONEYSELV27438300</t>
-  </si>
-  <si>
-    <t>TDRU4522690</t>
-  </si>
-  <si>
-    <t>9074905700-01</t>
-  </si>
-  <si>
-    <t>TCLU5711165</t>
-  </si>
-  <si>
-    <t>9076905484-01</t>
-  </si>
-  <si>
-    <t>MEDUBN643664</t>
-  </si>
-  <si>
-    <t>MSCU7821318</t>
-  </si>
-  <si>
-    <t>9076905638-01</t>
-  </si>
-  <si>
-    <t>MEDUBN705182</t>
-  </si>
-  <si>
-    <t>TCLU5634855</t>
-  </si>
-  <si>
-    <t>9076905483-01</t>
-  </si>
-  <si>
-    <t>MSCU4813746</t>
-  </si>
-  <si>
-    <t>9076905487-01</t>
-  </si>
-  <si>
-    <t>MEDUBN659231</t>
-  </si>
-  <si>
-    <t>DFSU6920859</t>
-  </si>
-  <si>
-    <t>CMA CGM LA TRAVIATA</t>
-  </si>
-  <si>
-    <t>0LB35W1MA</t>
-  </si>
-  <si>
-    <t>9077905331-01</t>
-  </si>
-  <si>
-    <t>2106108120</t>
-  </si>
-  <si>
-    <t>NYKU4088410</t>
-  </si>
-  <si>
-    <t>NYK FALCON</t>
-  </si>
-  <si>
-    <t>010E</t>
-  </si>
-  <si>
-    <t>9076905361-01</t>
-  </si>
-  <si>
-    <t>ONEYTPEV21230300</t>
-  </si>
-  <si>
-    <t>MOFU5842465</t>
-  </si>
-  <si>
-    <t>9076905624-01</t>
-  </si>
-  <si>
-    <t>ONEYBKKV46950400</t>
+    <t>DRYU9529678</t>
+  </si>
+  <si>
+    <t>MADRID BRIDGE</t>
+  </si>
+  <si>
+    <t>005E</t>
+  </si>
+  <si>
+    <t>9074905519-01</t>
+  </si>
+  <si>
+    <t>ONEYJKTV32424700</t>
+  </si>
+  <si>
+    <t>TLLU5533272</t>
+  </si>
+  <si>
+    <t>9074905523-01</t>
+  </si>
+  <si>
+    <t>ONEYJKTV32421400</t>
+  </si>
+  <si>
+    <t>FDCU0583269</t>
+  </si>
+  <si>
+    <t>9074905521-01</t>
+  </si>
+  <si>
+    <t>TCLU4662430</t>
+  </si>
+  <si>
+    <t>9074905721-01</t>
+  </si>
+  <si>
+    <t>NYKU4960246</t>
+  </si>
+  <si>
+    <t>9074905524-01</t>
+  </si>
+  <si>
+    <t>YMMU1215401</t>
+  </si>
+  <si>
+    <t>9073905722-01</t>
+  </si>
+  <si>
+    <t>YMLUE300634278</t>
+  </si>
+  <si>
+    <t>HLXU5365554</t>
+  </si>
+  <si>
+    <t>9077905123-01</t>
+  </si>
+  <si>
+    <t>HLCUSZX1904APKU0</t>
+  </si>
+  <si>
+    <t>MOFU6717046</t>
+  </si>
+  <si>
+    <t>MOL MARVEL</t>
+  </si>
+  <si>
+    <t>046E</t>
+  </si>
+  <si>
+    <t>9077905897-01</t>
+  </si>
+  <si>
+    <t>ONEYSH9FC3201600</t>
+  </si>
+  <si>
+    <t>OOLU7759249</t>
+  </si>
+  <si>
+    <t>COSCO VIETNAM</t>
+  </si>
+  <si>
+    <t>050W</t>
+  </si>
+  <si>
+    <t>9078905296-01</t>
+  </si>
+  <si>
+    <t>OOLU2620543630</t>
+  </si>
+  <si>
+    <t>TGHU5138411</t>
+  </si>
+  <si>
+    <t>9078905064-01</t>
+  </si>
+  <si>
+    <t>EGLV506900011930</t>
+  </si>
+  <si>
+    <t>EITU1758982</t>
+  </si>
+  <si>
+    <t>9078905112-01</t>
+  </si>
+  <si>
+    <t>EGLV540900065151</t>
+  </si>
+  <si>
+    <t>CXDU2230364</t>
+  </si>
+  <si>
+    <t>MSC BUSAN</t>
+  </si>
+  <si>
+    <t>IU917A</t>
+  </si>
+  <si>
+    <t>9078905328-01</t>
+  </si>
+  <si>
+    <t>MEDUIZ696879</t>
+  </si>
+  <si>
+    <t>ZCSU2565731</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>86E</t>
+  </si>
+  <si>
+    <t>9076905678-01</t>
+  </si>
+  <si>
+    <t>ZIMUSNH1058383</t>
+  </si>
+  <si>
+    <t>GESU6113014</t>
+  </si>
+  <si>
+    <t>YORK</t>
+  </si>
+  <si>
+    <t>NG919W</t>
+  </si>
+  <si>
+    <t>9077905726-01</t>
+  </si>
+  <si>
+    <t>MEDUBN705331</t>
+  </si>
+  <si>
+    <t>CARU3667274</t>
+  </si>
+  <si>
+    <t>9077905827-01</t>
+  </si>
+  <si>
+    <t>MEDUBN659165</t>
   </si>
   <si>
     <t>GLDU7353675</t>
@@ -299,22 +248,13 @@
     <t>MEDUBN705174</t>
   </si>
   <si>
-    <t>TEMU8272757</t>
-  </si>
-  <si>
-    <t>9076905632-01</t>
-  </si>
-  <si>
-    <t>MEDUBN704821</t>
-  </si>
-  <si>
-    <t>OOCU7796626</t>
-  </si>
-  <si>
-    <t>9077905324-01</t>
-  </si>
-  <si>
-    <t>2106108150</t>
+    <t>ZCSU2578092</t>
+  </si>
+  <si>
+    <t>9076905662-01</t>
+  </si>
+  <si>
+    <t>ZIMUSNH1058384</t>
   </si>
   <si>
     <t>TGHU6090328</t>
@@ -326,64 +266,103 @@
     <t>MEDUBN704698</t>
   </si>
   <si>
-    <t>CXDU1994687</t>
-  </si>
-  <si>
-    <t>MAERSK MONTANA</t>
-  </si>
-  <si>
-    <t>919W</t>
-  </si>
-  <si>
-    <t>9077905180-01</t>
-  </si>
-  <si>
-    <t>MSCUUW143368</t>
-  </si>
-  <si>
-    <t>OOCU7793381</t>
-  </si>
-  <si>
-    <t>9077905160-01</t>
-  </si>
-  <si>
-    <t>OOLU2620120320</t>
-  </si>
-  <si>
-    <t>MSCU5808533</t>
-  </si>
-  <si>
-    <t>YORK</t>
-  </si>
-  <si>
-    <t>NG919W</t>
-  </si>
-  <si>
-    <t>9076905560-01</t>
-  </si>
-  <si>
-    <t>MEDUBN701579</t>
-  </si>
-  <si>
-    <t>TRLU8741223</t>
-  </si>
-  <si>
-    <t>YM UNIFORMITY</t>
-  </si>
-  <si>
-    <t>041E</t>
-  </si>
-  <si>
-    <t>9076905705-01</t>
-  </si>
-  <si>
-    <t>ONEYDL8CT0780700</t>
-  </si>
-  <si>
-    <t>TCNU9630433</t>
-  </si>
-  <si>
-    <t>9076905364-01</t>
+    <t>NYKU3424568</t>
+  </si>
+  <si>
+    <t>9076905957-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV43170800</t>
+  </si>
+  <si>
+    <t>INKU6643726</t>
+  </si>
+  <si>
+    <t>9077905738-01</t>
+  </si>
+  <si>
+    <t>MEDUBN705497</t>
+  </si>
+  <si>
+    <t>UACU8151799</t>
+  </si>
+  <si>
+    <t>9077905122-01</t>
+  </si>
+  <si>
+    <t>NYKU4759191</t>
+  </si>
+  <si>
+    <t>9076905970-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV41602600</t>
+  </si>
+  <si>
+    <t>OOLU1780059</t>
+  </si>
+  <si>
+    <t>9078905290-01</t>
+  </si>
+  <si>
+    <t>OOLU2106763300</t>
+  </si>
+  <si>
+    <t>TCKU1309720</t>
+  </si>
+  <si>
+    <t>9077905173-01</t>
+  </si>
+  <si>
+    <t>ONEYSZPV42400300</t>
+  </si>
+  <si>
+    <t>TGHU0397235</t>
+  </si>
+  <si>
+    <t>9078905141-01</t>
+  </si>
+  <si>
+    <t>MEDUMI723443</t>
+  </si>
+  <si>
+    <t>TEMU8326154</t>
+  </si>
+  <si>
+    <t>9077905736-01</t>
+  </si>
+  <si>
+    <t>MEDUBN831392</t>
+  </si>
+  <si>
+    <t>TEMU7699277</t>
+  </si>
+  <si>
+    <t>9077905740-01</t>
+  </si>
+  <si>
+    <t>MEDUBN705372</t>
+  </si>
+  <si>
+    <t>DFSU7585061</t>
+  </si>
+  <si>
+    <t>9077905830-01</t>
+  </si>
+  <si>
+    <t>MEDUBN705539</t>
+  </si>
+  <si>
+    <t>FCIU9192835</t>
+  </si>
+  <si>
+    <t>9078905111-01</t>
+  </si>
+  <si>
+    <t>EITU1959272</t>
+  </si>
+  <si>
+    <t>9078905113-01</t>
   </si>
   <si>
     <t>INBU5229513</t>
@@ -395,40 +374,127 @@
     <t>MEDUBN659199</t>
   </si>
   <si>
-    <t>DFSU6544469</t>
-  </si>
-  <si>
-    <t>9076905641-01</t>
-  </si>
-  <si>
-    <t>MEDUBN703229</t>
-  </si>
-  <si>
-    <t>MSCU6071501</t>
-  </si>
-  <si>
-    <t>IU915A</t>
-  </si>
-  <si>
-    <t>9076905858-01</t>
-  </si>
-  <si>
-    <t>MEDUMI634384</t>
-  </si>
-  <si>
-    <t>NYKU8498028</t>
-  </si>
-  <si>
-    <t>9076905625-01</t>
-  </si>
-  <si>
-    <t>BMOU4691068</t>
-  </si>
-  <si>
-    <t>9076905488-01</t>
-  </si>
-  <si>
-    <t>MEDUBN705406</t>
+    <t>MOFU6721154</t>
+  </si>
+  <si>
+    <t>9076905781-01</t>
+  </si>
+  <si>
+    <t>ONEYBKKV54802600</t>
+  </si>
+  <si>
+    <t>MEDU6933623</t>
+  </si>
+  <si>
+    <t>9077905828-01</t>
+  </si>
+  <si>
+    <t>ZCSU2607360</t>
+  </si>
+  <si>
+    <t>986E</t>
+  </si>
+  <si>
+    <t>9077905867-01</t>
+  </si>
+  <si>
+    <t>ZIMUQIN4662373</t>
+  </si>
+  <si>
+    <t>OOLU9253120</t>
+  </si>
+  <si>
+    <t>9077905923-01</t>
+  </si>
+  <si>
+    <t>2106589740</t>
+  </si>
+  <si>
+    <t>HMCU1069423</t>
+  </si>
+  <si>
+    <t>9078905063-01</t>
+  </si>
+  <si>
+    <t>CAIU2529490</t>
+  </si>
+  <si>
+    <t>9078905140-01</t>
+  </si>
+  <si>
+    <t>MEDUMI691152</t>
+  </si>
+  <si>
+    <t>GLDU5133706</t>
+  </si>
+  <si>
+    <t>9078905142-01</t>
+  </si>
+  <si>
+    <t>MEDUMI669687</t>
+  </si>
+  <si>
+    <t>TGHU4931734</t>
+  </si>
+  <si>
+    <t>9078905105-01</t>
+  </si>
+  <si>
+    <t>ONEYDL8CT0802900</t>
+  </si>
+  <si>
+    <t>GVCU4033421</t>
+  </si>
+  <si>
+    <t>9077905124-01</t>
+  </si>
+  <si>
+    <t>TEMU0766291</t>
+  </si>
+  <si>
+    <t>9076905779-01</t>
+  </si>
+  <si>
+    <t>OOLU8679620</t>
+  </si>
+  <si>
+    <t>9077905919-01</t>
+  </si>
+  <si>
+    <t>OOCL2106589010</t>
+  </si>
+  <si>
+    <t>ZCSU2663569</t>
+  </si>
+  <si>
+    <t>9076905664-01</t>
+  </si>
+  <si>
+    <t>MEDU4379549</t>
+  </si>
+  <si>
+    <t>9076905771-01</t>
+  </si>
+  <si>
+    <t>MEDUBN742698</t>
+  </si>
+  <si>
+    <t>ZCSU2720740</t>
+  </si>
+  <si>
+    <t>9076905676-01</t>
+  </si>
+  <si>
+    <t>HLXU5389047</t>
+  </si>
+  <si>
+    <t>9077905121-01</t>
+  </si>
+  <si>
+    <t>ZCSU2781432</t>
+  </si>
+  <si>
+    <t>9076905677-01</t>
   </si>
   <si>
     <t>TCLU4392438</t>
@@ -444,6 +510,33 @@
   </si>
   <si>
     <t>EGLV237900161185</t>
+  </si>
+  <si>
+    <t>TEMU1625127</t>
+  </si>
+  <si>
+    <t>TEMPANOS</t>
+  </si>
+  <si>
+    <t>9116</t>
+  </si>
+  <si>
+    <t>9078905396-01</t>
+  </si>
+  <si>
+    <t>HLCUBO1190474824</t>
+  </si>
+  <si>
+    <t>9078905451-01</t>
+  </si>
+  <si>
+    <t>MEDU7547796</t>
+  </si>
+  <si>
+    <t>9078905333-01</t>
+  </si>
+  <si>
+    <t>MEDUIZ696887</t>
   </si>
 </sst>
 </file>
@@ -488,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -591,298 +684,298 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>82</v>
@@ -897,323 +990,593 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
